--- a/Clients/Client1.xlsx
+++ b/Clients/Client1.xlsx
@@ -4,15 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="3" r:id="rId1"/>
-    <sheet name="Site1-1" sheetId="4" r:id="rId2"/>
-    <sheet name="Site1-2" sheetId="6" r:id="rId3"/>
-    <sheet name="Site2-1" sheetId="7" r:id="rId4"/>
-    <sheet name="Site2-2" sheetId="8" r:id="rId5"/>
-    <sheet name="Site2-3" sheetId="10" r:id="rId6"/>
+    <sheet name="Site1-Service1" sheetId="4" r:id="rId2"/>
+    <sheet name="Site1-Service2" sheetId="6" r:id="rId3"/>
+    <sheet name="Site2-Service1" sheetId="7" r:id="rId4"/>
+    <sheet name="Site2-Service2" sheetId="8" r:id="rId5"/>
+    <sheet name="Site2-Service3" sheetId="10" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="28">
   <si>
     <t>example1|example 2|example 3</t>
   </si>
@@ -71,9 +71,6 @@
     <t>Start:</t>
   </si>
   <si>
-    <t>admin@.co.uk</t>
-  </si>
-  <si>
     <t>Service1|Service2</t>
   </si>
   <si>
@@ -96,6 +93,21 @@
   </si>
   <si>
     <t>Contact3</t>
+  </si>
+  <si>
+    <t>Contact3@Site2-Service3.co.uk</t>
+  </si>
+  <si>
+    <t>Contact2@Site2-Service2.co.uk</t>
+  </si>
+  <si>
+    <t>Contact1@Site2-Service1.co.uk</t>
+  </si>
+  <si>
+    <t>Contact2@Site1-Service2.co.uk</t>
+  </si>
+  <si>
+    <t>Contact1@Site1-Service1.co.uk</t>
   </si>
 </sst>
 </file>
@@ -527,7 +539,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -551,7 +563,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="11"/>
     </row>
@@ -576,10 +588,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -587,10 +599,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -624,13 +636,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -638,7 +650,7 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -646,7 +658,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -686,12 +698,12 @@
   <dimension ref="A2:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -699,7 +711,7 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -707,7 +719,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -747,12 +759,12 @@
   <dimension ref="A2:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -760,7 +772,7 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -768,7 +780,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -808,13 +820,13 @@
   <dimension ref="A2:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="2" max="3" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -822,7 +834,7 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -830,7 +842,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -870,13 +882,13 @@
   <dimension ref="A2:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -884,7 +896,7 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -892,7 +904,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">

--- a/Clients/Client1.xlsx
+++ b/Clients/Client1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="3" r:id="rId1"/>
@@ -95,19 +95,19 @@
     <t>Contact3</t>
   </si>
   <si>
-    <t>Contact3@Site2-Service3.co.uk</t>
-  </si>
-  <si>
-    <t>Contact2@Site2-Service2.co.uk</t>
-  </si>
-  <si>
-    <t>Contact1@Site2-Service1.co.uk</t>
-  </si>
-  <si>
-    <t>Contact2@Site1-Service2.co.uk</t>
-  </si>
-  <si>
-    <t>Contact1@Site1-Service1.co.uk</t>
+    <t>Contact1@Site1.co.uk</t>
+  </si>
+  <si>
+    <t>Contact2@Site1.co.uk</t>
+  </si>
+  <si>
+    <t>Contact2@Site2.co.uk</t>
+  </si>
+  <si>
+    <t>Contact1@Site2.co.uk</t>
+  </si>
+  <si>
+    <t>Contact3@Site2.co.uk</t>
   </si>
 </sst>
 </file>
@@ -539,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -636,7 +636,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -658,7 +658,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -703,7 +703,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="27.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -719,7 +719,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -759,12 +759,12 @@
   <dimension ref="A2:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28.140625" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -780,7 +780,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -820,13 +820,14 @@
   <dimension ref="A2:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="3" width="27.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -842,7 +843,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -888,7 +889,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="35.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -904,7 +905,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
